--- a/JavaEE_Anforderungen.xlsx
+++ b/JavaEE_Anforderungen.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schod\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/JavaEE_Anforderungen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="4530"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>Komplexes Informationsobjekt (Listen, min 5 Attribute)</t>
   </si>
@@ -275,10 +278,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,25 +424,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -441,48 +451,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,70 +787,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="25">
         <f>(SUM(C71:E71)*100)/SUM(C70:E70)</f>
-        <v>37.209302325581397</v>
+        <v>74.418604651162795</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="25">
         <f>C72</f>
-        <v>51.724137931034484</v>
+        <v>79.310344827586206</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="25">
         <f>D72</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <f>E72</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -842,17 +867,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -860,11 +885,11 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -873,11 +898,11 @@
       <c r="D8" s="10"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -885,41 +910,47 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="13"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="13"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -927,50 +958,59 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="13"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="13"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -978,11 +1018,11 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -991,24 +1031,24 @@
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="11"/>
       <c r="D23" s="17"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1017,11 +1057,11 @@
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="14"/>
@@ -1030,34 +1070,37 @@
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
+      <c r="B26" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="11"/>
       <c r="D28" s="17"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -1066,11 +1109,11 @@
       <c r="D29" s="16"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1079,11 +1122,11 @@
       <c r="D30" s="16"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1092,9 +1135,12 @@
       <c r="D31" s="16"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="16"/>
@@ -1102,7 +1148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1113,79 +1159,80 @@
       <c r="E33" s="20"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C39" s="13"/>
       <c r="D39" s="16"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B40" s="26"/>
       <c r="C40" s="15"/>
       <c r="D40" s="19"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1194,29 +1241,38 @@
       <c r="D41" s="16"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
+      <c r="B42" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
+      <c r="B43" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="16"/>
@@ -1227,24 +1283,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C45" s="13"/>
       <c r="D45" s="16"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="15"/>
       <c r="D46" s="19"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -1253,21 +1310,24 @@
       <c r="D47" s="16"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
+      <c r="B48" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -1276,24 +1336,25 @@
       <c r="D49" s="16"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C50" s="13"/>
       <c r="D50" s="16"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="B51" s="26"/>
       <c r="C51" s="15"/>
       <c r="D51" s="19"/>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -1305,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1315,30 +1376,34 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C54" s="13"/>
       <c r="D54" s="16"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B55" s="26"/>
       <c r="C55" s="15"/>
       <c r="D55" s="19"/>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
+      <c r="B56" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C56" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -1348,7 +1413,7 @@
       </c>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1423,7 @@
       </c>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1368,19 +1433,25 @@
       </c>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>53</v>
       </c>
+      <c r="B60" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>54</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="18" t="s">
@@ -1391,44 +1462,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
+      <c r="B62" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C62" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
+      <c r="B63" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C64" s="13"/>
       <c r="D64" s="16"/>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B65" s="26"/>
       <c r="C65" s="15"/>
       <c r="D65" s="19"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -1437,7 +1515,7 @@
       <c r="D66" s="16"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -1447,13 +1525,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D68" s="16"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="16"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -1470,38 +1548,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="8">
         <f>COUNTIFS($B$5:$B$69,"*",C5:C69,"x")</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ref="D71:E71" si="1">COUNTIFS($B$5:$B$69,"*",D5:D69,"x")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E71" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="8">
         <f>(C71*100)/C70</f>
-        <v>51.724137931034484</v>
+        <v>79.310344827586206</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" ref="D72:E72" si="2">(D71*100)/D70</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E72" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/JavaEE_Anforderungen.xlsx
+++ b/JavaEE_Anforderungen.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/JavaEE_Anforderungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Projects\thi\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>Komplexes Informationsobjekt (Listen, min 5 Attribute)</t>
   </si>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +507,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,30 +787,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="16.7109375" style="25" customWidth="1"/>
+    <col min="3" max="5" width="10.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="25">
         <f>(SUM(C71:E71)*100)/SUM(C70:E70)</f>
-        <v>74.418604651162795</v>
+        <v>76.744186046511629</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -822,19 +822,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="25">
         <f>D72</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -846,7 +846,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -867,13 +867,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -922,7 +922,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -934,11 +934,11 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="C13" s="13"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -958,7 +958,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -994,11 +994,11 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="C19" s="13"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1031,11 +1031,11 @@
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="D23" s="17"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1083,11 +1083,11 @@
       <c r="D26" s="16"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="16"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="E33" s="20"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -1214,12 +1214,12 @@
       <c r="D38" s="16"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="16"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="D41" s="16"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1283,12 +1283,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
       <c r="D45" s="16"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="D47" s="16"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1336,12 +1336,12 @@
       <c r="D49" s="16"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="13"/>
       <c r="D50" s="16"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1376,12 +1376,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" s="13"/>
       <c r="D54" s="16"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -1413,17 +1413,20 @@
       </c>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
+      <c r="B58" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -1475,7 +1478,7 @@
       <c r="D62" s="16"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -1488,12 +1491,12 @@
       </c>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="13"/>
       <c r="D64" s="16"/>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1505,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="D66" s="16"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -1525,13 +1528,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" s="16"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="16"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -1558,14 +1561,14 @@
       </c>
       <c r="D71" s="8">
         <f t="shared" ref="D71:E71" si="1">COUNTIFS($B$5:$B$69,"*",D5:D69,"x")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="D72" s="8">
         <f t="shared" ref="D72:E72" si="2">(D71*100)/D70</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E72" s="8">
         <f t="shared" si="2"/>

--- a/JavaEE_Anforderungen.xlsx
+++ b/JavaEE_Anforderungen.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>Komplexes Informationsobjekt (Listen, min 5 Attribute)</t>
   </si>
@@ -499,10 +499,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="B1" s="25">
         <f>(SUM(C71:E71)*100)/SUM(C70:E70)</f>
-        <v>76.744186046511629</v>
+        <v>88.372093023255815</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>67</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="B2" s="25">
         <f>C72</f>
-        <v>79.310344827586206</v>
+        <v>96.551724137931032</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>67</v>
@@ -1152,6 +1152,9 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
+      <c r="B33" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C33" s="12" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1166,9 @@
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="C34" s="12" t="s">
         <v>64</v>
       </c>
@@ -1174,7 +1179,9 @@
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="12" t="s">
         <v>64</v>
       </c>
@@ -1185,7 +1192,9 @@
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="C36" s="12" t="s">
         <v>64</v>
       </c>
@@ -1196,7 +1205,9 @@
       <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="C37" s="12" t="s">
         <v>64</v>
       </c>
@@ -1207,7 +1218,9 @@
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="12" t="s">
         <v>64</v>
       </c>
@@ -1509,9 +1522,6 @@
       <c r="A66" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>64</v>
-      </c>
       <c r="C66" s="12" t="s">
         <v>64</v>
       </c>
@@ -1557,7 +1567,7 @@
       </c>
       <c r="C71" s="8">
         <f>COUNTIFS($B$5:$B$69,"*",C5:C69,"x")</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ref="D71:E71" si="1">COUNTIFS($B$5:$B$69,"*",D5:D69,"x")</f>
@@ -1574,7 +1584,7 @@
       </c>
       <c r="C72" s="8">
         <f>(C71*100)/C70</f>
-        <v>79.310344827586206</v>
+        <v>96.551724137931032</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" ref="D72:E72" si="2">(D71*100)/D70</f>
